--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_4_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_4_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.21000000000019</v>
+        <v>23.19000000000019</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001321338497217939</v>
+        <v>0.01343599788550887</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001321338497217939</v>
+        <v>0.01343599788550887</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>49.29558495128607</v>
+        <v>41.87606698797467</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.69409010633018, 78.89707979624197]</t>
+          <t>[6.955798295353759, 76.79633568059559]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.001623785542867129</v>
+        <v>0.01984665625320914</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001623785542867129</v>
+        <v>0.01984665625320914</v>
       </c>
       <c r="P2" t="n">
-        <v>1.729605565039425</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.9622896416401163, 2.4969214884387343]</t>
+          <t>[0.044026323473730145, 2.308237244979889]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.181001622405311e-05</v>
+        <v>0.04207097597411513</v>
       </c>
       <c r="S2" t="n">
-        <v>4.181001622405311e-05</v>
+        <v>0.04207097597411513</v>
       </c>
       <c r="T2" t="n">
-        <v>72.19288287537248</v>
+        <v>68.00994989157491</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[54.58779225652795, 89.797973494217]</t>
+          <t>[48.92375302260645, 87.09614676054336]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.450535247471407e-10</v>
+        <v>5.574315009582165e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>1.450535247471407e-10</v>
+        <v>5.574315009582165e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>16.820860860861</v>
+        <v>18.84912912912928</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.98640640640652</v>
+        <v>14.67075075075087</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.65531531531548</v>
+        <v>23.0275075075077</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.21000000000019</v>
+        <v>23.19000000000019</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001315230971221659</v>
+        <v>0.001207879630190756</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001315230971221659</v>
+        <v>0.001207879630190756</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>49.29399073820914</v>
+        <v>48.78507077288676</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[24.42665945523582, 74.16132202118246]</t>
+          <t>[18.40212226116242, 79.1680192846111]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0002387643830399355</v>
+        <v>0.002289239445157909</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0002387643830399355</v>
+        <v>0.002289239445157909</v>
       </c>
       <c r="P3" t="n">
-        <v>1.654131867655887</v>
+        <v>1.742184514603348</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 2.257921446724196]</t>
+          <t>[0.9874475407679633, 2.4969214884387334]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.613100575559301e-06</v>
+        <v>2.928659974665848e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>1.613100575559301e-06</v>
+        <v>2.928659974665848e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>66.16210878854736</v>
+        <v>57.73644792889424</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[51.40292471415799, 80.92129286293672]</t>
+          <t>[40.43481596373044, 75.03807989405803]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.15398801625588e-11</v>
+        <v>2.643492580389761e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>1.15398801625588e-11</v>
+        <v>2.643492580389761e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>17.0996596596598</v>
+        <v>16.75993993994008</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.86926926926939</v>
+        <v>13.97435435435447</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.33005005005021</v>
+        <v>19.54552552552568</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.21000000000019</v>
+        <v>23.19000000000019</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.003429706800406662</v>
+        <v>0.0001668106417727078</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003429706800406662</v>
+        <v>0.0001668106417727078</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>39.44468241008684</v>
+        <v>47.881077565312</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[9.273014886420881, 69.6163499337528]</t>
+          <t>[19.10531112395506, 76.65684400666893]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01155415615096267</v>
+        <v>0.001636756385126725</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01155415615096267</v>
+        <v>0.001636756385126725</v>
       </c>
       <c r="P4" t="n">
-        <v>2.232763547596349</v>
+        <v>2.207605648468504</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.5409213215805782, 2.92460577361212]</t>
+          <t>[1.628973968528042, 2.7862373284089657]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.636379007967207e-08</v>
+        <v>9.970331227293627e-10</v>
       </c>
       <c r="S4" t="n">
-        <v>5.636379007967207e-08</v>
+        <v>9.970331227293627e-10</v>
       </c>
       <c r="T4" t="n">
-        <v>64.89415191844937</v>
+        <v>62.16368245085517</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.308329273523555, 80.47997456337518]</t>
+          <t>[47.41766662861126, 76.90969827309908]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>9.517520105362109e-11</v>
+        <v>6.730660473408534e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>9.517520105362109e-11</v>
+        <v>6.730660473408534e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>14.96220220220233</v>
+        <v>15.04216216216228</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.40654654654665</v>
+        <v>12.90654654654665</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.517857857858</v>
+        <v>17.17777777777791</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.21000000000019</v>
+        <v>23.19000000000019</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.697107928250624e-06</v>
+        <v>4.030664371201809e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>7.697107928250624e-06</v>
+        <v>4.030664371201809e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>65.30379090528474</v>
+        <v>52.05164079903686</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[33.576285545247984, 97.0312962653215]</t>
+          <t>[23.60524261705595, 80.49803898101777]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001478509186898513</v>
+        <v>0.0006112132057289887</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001478509186898513</v>
+        <v>0.0006112132057289887</v>
       </c>
       <c r="P5" t="n">
-        <v>2.320816194543812</v>
+        <v>2.220184598032427</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.8679740102425795, 2.7736583788450444]</t>
+          <t>[1.6918687163476571, 2.7485004797171966]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.907363156306019e-13</v>
+        <v>7.351341757555474e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>1.907363156306019e-13</v>
+        <v>7.351341757555474e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>76.20857337094617</v>
+        <v>65.69441373685737</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[59.48978039148213, 92.92736635041021]</t>
+          <t>[51.07335191270049, 80.31547556101425]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.051692563209144e-12</v>
+        <v>1.078381828278907e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>7.051692563209144e-12</v>
+        <v>1.078381828278907e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>14.63693693693705</v>
+        <v>14.99573573573585</v>
       </c>
       <c r="Y5" t="n">
-        <v>12.96414414414424</v>
+        <v>13.04582582582593</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.30972972972986</v>
+        <v>16.94564564564578</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.21000000000019</v>
+        <v>23.19000000000019</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002366575550067473</v>
+        <v>0.0001473023574158905</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002366575550067473</v>
+        <v>0.0001473023574158905</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>41.50469784744472</v>
+        <v>52.41525418874421</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[10.413870288552104, 72.59552540633733]</t>
+          <t>[21.542498765057594, 83.28800961243081]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01002209904506213</v>
+        <v>0.001343420394590789</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01002209904506213</v>
+        <v>0.001343420394590789</v>
       </c>
       <c r="P6" t="n">
-        <v>2.534658337130504</v>
+        <v>2.320816194543811</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.8428161111147334, 3.226500563146274]</t>
+          <t>[1.7673424137311944, 2.8742899753564277]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2.803361986991604e-09</v>
+        <v>7.816147729045042e-11</v>
       </c>
       <c r="S6" t="n">
-        <v>2.803361986991604e-09</v>
+        <v>7.816147729045042e-11</v>
       </c>
       <c r="T6" t="n">
-        <v>51.02602454216328</v>
+        <v>62.42318838088539</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[35.05076185519601, 67.00128722913055]</t>
+          <t>[46.368839339901164, 78.47753742186961]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.087684372741876e-08</v>
+        <v>6.07341288372254e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>7.087684372741876e-08</v>
+        <v>6.07341288372254e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>13.84700700700712</v>
+        <v>14.62432432432444</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.29135135135144</v>
+        <v>12.58156156156166</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.4026626626628</v>
+        <v>16.66708708708722</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.21000000000019</v>
+        <v>23.19000000000019</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.001483156404248e-06</v>
+        <v>0.0172851074959286</v>
       </c>
       <c r="I7" t="n">
-        <v>1.001483156404248e-06</v>
+        <v>0.0172851074959286</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>58.02342763346296</v>
+        <v>34.90142076106215</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.33905618869953, 79.70779907822639]</t>
+          <t>[2.5105072640055823, 67.29233425811871]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>2.49103716187804e-06</v>
+        <v>0.0353080976400364</v>
       </c>
       <c r="O7" t="n">
-        <v>2.49103716187804e-06</v>
+        <v>0.0353080976400364</v>
       </c>
       <c r="P7" t="n">
-        <v>3.050395269251351</v>
+        <v>2.295658295415965</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.5849741353861964, 3.5158164031165056]</t>
+          <t>[1.490605523324886, 3.100711067507044]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>7.496224598835255e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>7.496224598835255e-07</v>
       </c>
       <c r="T7" t="n">
-        <v>60.34218138223386</v>
+        <v>58.84084870443866</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.75463702368333, 73.92972574078439]</t>
+          <t>[42.183675545632624, 75.49802186324469]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.517364012215694e-11</v>
+        <v>6.888697168250246e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.517364012215694e-11</v>
+        <v>6.888697168250246e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>11.94188188188198</v>
+        <v>14.71717717717729</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.22262262262271</v>
+        <v>11.74588588588598</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.66114114114125</v>
+        <v>17.68846846846861</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.21000000000019</v>
+        <v>23.19000000000019</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8.142313483561203e-06</v>
+        <v>0.03002130504994938</v>
       </c>
       <c r="I8" t="n">
-        <v>8.142313483561203e-06</v>
+        <v>0.03002130504994938</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.95770150550544</v>
+        <v>25.37034603148295</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[28.161564061539437, 81.75383894947144]</t>
+          <t>[1.395945669992237, 49.34474639297367]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0001548756951563757</v>
+        <v>0.03855445760633258</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0001548756951563757</v>
+        <v>0.03855445760633258</v>
       </c>
       <c r="P8" t="n">
-        <v>2.622710984077965</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[2.1069740519571187, 3.138447916198812]</t>
+          <t>[1.4906055233248865, 4.1825007300044295]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.442490654175344e-13</v>
+        <v>0.0001080322191406857</v>
       </c>
       <c r="S8" t="n">
-        <v>2.442490654175344e-13</v>
+        <v>0.0001080322191406857</v>
       </c>
       <c r="T8" t="n">
-        <v>56.24492543684605</v>
+        <v>57.84670108400231</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[42.021770261289916, 70.46808061240218]</t>
+          <t>[44.55061353371607, 71.14278863428854]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.880165078129494e-10</v>
+        <v>2.749711569549618e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.880165078129494e-10</v>
+        <v>2.749711569549618e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>13.52174174174185</v>
+        <v>12.72084084084094</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.61661661661671</v>
+        <v>7.753213213213273</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.42686686686699</v>
+        <v>17.68846846846861</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.59000000000009</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001146222327526036</v>
+        <v>0.0001671336584448957</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001146222327526036</v>
+        <v>0.0001671336584448957</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>48.47408034658437</v>
+        <v>43.70244293397591</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[21.638607600707175, 75.30955309246156]</t>
+          <t>[19.761269185095756, 67.64361668285606]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0007044008572256732</v>
+        <v>0.0006277488214474491</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0007044008572256732</v>
+        <v>0.0006277488214474491</v>
       </c>
       <c r="P9" t="n">
-        <v>2.849132076228581</v>
+        <v>-2.930895248394081</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[2.207605648468504, 3.4906585039886586]</t>
+          <t>[-3.559842726590236, -2.3019477701979265]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.515543246455309e-11</v>
+        <v>3.645972412869014e-12</v>
       </c>
       <c r="S9" t="n">
-        <v>1.515543246455309e-11</v>
+        <v>3.645972412869014e-12</v>
       </c>
       <c r="T9" t="n">
-        <v>60.06657842702911</v>
+        <v>50.99527175085864</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[45.0714146099246, 75.06174224413361]</t>
+          <t>[37.22364215831597, 64.76690134340132]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.745641491941342e-10</v>
+        <v>2.143219823835807e-09</v>
       </c>
       <c r="W9" t="n">
-        <v>2.745641491941342e-10</v>
+        <v>2.143219823835807e-09</v>
       </c>
       <c r="X9" t="n">
-        <v>12.34648648648654</v>
+        <v>10.63543543543549</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.04000000000004</v>
+        <v>8.353153153153201</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.65297297297303</v>
+        <v>12.91771771771779</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.59000000000009</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02501728292902672</v>
+        <v>0.002634963855456363</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02501728292902672</v>
+        <v>0.002634963855456363</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>29.65755538315682</v>
+        <v>42.30841420109132</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[3.24504243470556, 56.07006833160808]</t>
+          <t>[12.372354217282478, 72.24447418490016]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.02860486673275187</v>
+        <v>0.006634934540027393</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02860486673275187</v>
+        <v>0.006634934540027393</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.817684702318773</v>
+        <v>-2.767368904063081</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-4.125895456966775, -1.5094739476707715]</t>
+          <t>[-3.5850006257180818, -1.9497371824080796]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>8.019307832207723e-05</v>
+        <v>1.904710766886808e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>8.019307832207723e-05</v>
+        <v>1.904710766886808e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>48.20363174092067</v>
+        <v>58.35811450640675</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[33.02074634690979, 63.38651713493155]</t>
+          <t>[41.777323573900965, 74.93890543891254]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.091542902377569e-08</v>
+        <v>7.523863532199471e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>8.091542902377569e-08</v>
+        <v>7.523863532199471e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>10.13045045045049</v>
+        <v>10.0420420420421</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.427027027027047</v>
+        <v>7.075075075075114</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.83387387387393</v>
+        <v>13.00900900900908</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.59000000000009</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.947841028471231e-06</v>
+        <v>0.03751753348472819</v>
       </c>
       <c r="I11" t="n">
-        <v>1.947841028471231e-06</v>
+        <v>0.03751753348472819</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>57.80179549842607</v>
+        <v>33.20466831919682</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[31.25530376976819, 84.34828722708396]</t>
+          <t>[-0.24151205687279287, 66.65084869526643]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>6.888132743410047e-05</v>
+        <v>0.05160698475077963</v>
       </c>
       <c r="O11" t="n">
-        <v>6.888132743410047e-05</v>
+        <v>0.05160698475077963</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.440316215401081</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.8805794501383892, -2.000052980663772]</t>
+          <t>[-4.06300070914716, -0.3144737390980774]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.465494392505207e-14</v>
+        <v>0.02310638813359889</v>
       </c>
       <c r="S11" t="n">
-        <v>1.465494392505207e-14</v>
+        <v>0.02310638813359889</v>
       </c>
       <c r="T11" t="n">
-        <v>58.52916513432608</v>
+        <v>68.99506441598379</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.77318103249269, 72.28514923615947]</t>
+          <t>[51.41464397004272, 86.57548486192486]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.186628904141344e-11</v>
+        <v>4.750020377031205e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>5.186628904141344e-11</v>
+        <v>4.750020377031205e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>8.773693693693732</v>
+        <v>7.942342342342387</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.190810810810842</v>
+        <v>1.141141141141148</v>
       </c>
       <c r="Z11" t="n">
-        <v>10.35657657657662</v>
+        <v>14.74354354354363</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.59000000000009</v>
+        <v>22.80000000000013</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001481536135325978</v>
+        <v>2.637604060717891e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001481536135325978</v>
+        <v>2.637604060717891e-05</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>61.58818575928382</v>
+        <v>55.22373023100331</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[25.31683805982535, 97.85953345874228]</t>
+          <t>[26.486083360859766, 83.96137710114685]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.001341838140848761</v>
+        <v>0.0003482389193374402</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001341838140848761</v>
+        <v>0.0003482389193374402</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.352263568453619</v>
+        <v>-2.088105627611234</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.8931583997023127, -1.8113687372049254]</t>
+          <t>[-2.6164215092960044, -1.5597897459264631]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>2.78290723798591e-11</v>
+        <v>3.935094472495848e-10</v>
       </c>
       <c r="S12" t="n">
-        <v>2.78290723798591e-11</v>
+        <v>3.935094472495848e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>75.34137673555523</v>
+        <v>60.02561227870063</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[56.60041960214026, 94.0823338689702]</t>
+          <t>[45.087311604601126, 74.96391295280014]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.491613582122909e-10</v>
+        <v>2.523861120096171e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>2.491613582122909e-10</v>
+        <v>2.523861120096171e-10</v>
       </c>
       <c r="X12" t="n">
-        <v>8.457117117117154</v>
+        <v>7.577177177177218</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.512432432432459</v>
+        <v>5.660060060060088</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.40180180180185</v>
+        <v>9.494294294294347</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_4_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_per_day_fixed_period_4_square_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.19000000000019</v>
+        <v>23.2700000000002</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01343599788550887</v>
+        <v>1.247896561418216e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01343599788550887</v>
+        <v>1.247896561418216e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>41.87606698797467</v>
+        <v>59.26117921591533</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[6.955798295353759, 76.79633568059559]</t>
+          <t>[32.94515092848796, 85.5772075033427]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01984665625320914</v>
+        <v>4.241431507834292e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01984665625320914</v>
+        <v>4.241431507834292e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.17613178422681</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.044026323473730145, 2.308237244979889]</t>
+          <t>[0.9245527929483472, 1.9811845563178885]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.04207097597411513</v>
+        <v>1.502353802695922e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04207097597411513</v>
+        <v>1.502353802695922e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>68.00994989157491</v>
+        <v>71.46175019786959</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[48.92375302260645, 87.09614676054336]</t>
+          <t>[56.10860676300794, 86.81489363273124]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.574315009582165e-09</v>
+        <v>3.776978729774783e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>5.574315009582165e-09</v>
+        <v>3.776978729774783e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>18.84912912912928</v>
+        <v>17.8892492492494</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.67075075075087</v>
+        <v>15.93261261261275</v>
       </c>
       <c r="Z2" t="n">
-        <v>23.0275075075077</v>
+        <v>19.84588588588606</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.19000000000019</v>
+        <v>23.2700000000002</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001207879630190756</v>
+        <v>0.00152826409523299</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001207879630190756</v>
+        <v>0.00152826409523299</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>48.78507077288676</v>
+        <v>44.8839383157534</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[18.40212226116242, 79.1680192846111]</t>
+          <t>[16.625060889012943, 73.14281574249387]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.002289239445157909</v>
+        <v>0.002527043333595769</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002289239445157909</v>
+        <v>0.002527043333595769</v>
       </c>
       <c r="P3" t="n">
         <v>1.742184514603348</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9874475407679633, 2.4969214884387334]</t>
+          <t>[1.0000264903318854, 2.4843425388748113]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.928659974665848e-05</v>
+        <v>2.262054102741828e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.928659974665848e-05</v>
+        <v>2.262054102741828e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>57.73644792889424</v>
+        <v>60.55783376905903</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[40.43481596373044, 75.03807989405803]</t>
+          <t>[44.29141768042177, 76.82424985769629]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.643492580389761e-08</v>
+        <v>1.870271715276317e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>2.643492580389761e-08</v>
+        <v>1.870271715276317e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>16.75993993994008</v>
+        <v>16.8177577577579</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.97435435435447</v>
+        <v>14.06914914914927</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.54552552552568</v>
+        <v>19.56636636636654</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.19000000000019</v>
+        <v>23.2700000000002</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001668106417727078</v>
+        <v>0.004845912359066173</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001668106417727078</v>
+        <v>0.004845912359066173</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>47.881077565312</v>
+        <v>38.94380206481222</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.10531112395506, 76.65684400666893]</t>
+          <t>[8.263080277432422, 69.62452385219201]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.001636756385126725</v>
+        <v>0.01401610539907705</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001636756385126725</v>
+        <v>0.01401610539907705</v>
       </c>
       <c r="P4" t="n">
-        <v>2.207605648468504</v>
+        <v>2.572395185822273</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.628973968528042, 2.7862373284089657]</t>
+          <t>[1.8302371615508104, 3.3145532100937354]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>9.970331227293627e-10</v>
+        <v>1.086967604813083e-08</v>
       </c>
       <c r="S4" t="n">
-        <v>9.970331227293627e-10</v>
+        <v>1.086967604813083e-08</v>
       </c>
       <c r="T4" t="n">
-        <v>62.16368245085517</v>
+        <v>60.41487788637925</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[47.41766662861126, 76.90969827309908]</t>
+          <t>[44.30823805417563, 76.52151771858287]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.730660473408534e-11</v>
+        <v>1.544528727137617e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>6.730660473408534e-11</v>
+        <v>1.544528727137617e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>15.04216216216228</v>
+        <v>13.74304304304316</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.90654654654665</v>
+        <v>10.99443443443453</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.17777777777791</v>
+        <v>16.49165165165179</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.19000000000019</v>
+        <v>23.2700000000002</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>4.030664371201809e-05</v>
+        <v>1.787691832344507e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>4.030664371201809e-05</v>
+        <v>1.787691832344507e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>52.05164079903686</v>
+        <v>61.0959769073658</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[23.60524261705595, 80.49803898101777]</t>
+          <t>[35.76767449674571, 86.42427931798588]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0006112132057289887</v>
+        <v>1.472067728269799e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0006112132057289887</v>
+        <v>1.472067728269799e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>2.220184598032427</v>
+        <v>2.119553001521041</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.6918687163476571, 2.7485004797171966]</t>
+          <t>[1.7044476659115784, 2.5346583371305034]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.351341757555474e-11</v>
+        <v>2.144950883575802e-13</v>
       </c>
       <c r="S5" t="n">
-        <v>7.351341757555474e-11</v>
+        <v>2.144950883575802e-13</v>
       </c>
       <c r="T5" t="n">
-        <v>65.69441373685737</v>
+        <v>69.09376586031557</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[51.07335191270049, 80.31547556101425]</t>
+          <t>[56.17749657693176, 82.01003514369938]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.078381828278907e-11</v>
+        <v>4.773959005888173e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.078381828278907e-11</v>
+        <v>4.773959005888173e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>14.99573573573585</v>
+        <v>15.42016016016029</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.04582582582593</v>
+        <v>13.88280280280292</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.94564564564578</v>
+        <v>16.95751751751767</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.19000000000019</v>
+        <v>23.2700000000002</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001473023574158905</v>
+        <v>0.01479886268852992</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001473023574158905</v>
+        <v>0.01479886268852992</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>52.41525418874421</v>
+        <v>33.82686694352262</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[21.542498765057594, 83.28800961243081]</t>
+          <t>[4.222677831317611, 63.43105605572764]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.001343420394590789</v>
+        <v>0.02605466019576763</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001343420394590789</v>
+        <v>0.02605466019576763</v>
       </c>
       <c r="P6" t="n">
-        <v>2.320816194543811</v>
+        <v>2.698184681461504</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.7673424137311944, 2.8742899753564277]</t>
+          <t>[1.5409213215805795, 3.8554480413424286]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>7.816147729045042e-11</v>
+        <v>2.513340138898812e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>7.816147729045042e-11</v>
+        <v>2.513340138898812e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>62.42318838088539</v>
+        <v>61.71043679779094</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[46.368839339901164, 78.47753742186961]</t>
+          <t>[45.72603372613791, 77.69483986944397]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.07341288372254e-10</v>
+        <v>7.322231709849802e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>6.07341288372254e-10</v>
+        <v>7.322231709849802e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>14.62432432432444</v>
+        <v>13.27717717717729</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.58156156156166</v>
+        <v>8.991211211211288</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.66708708708722</v>
+        <v>17.56314314314329</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.19000000000019</v>
+        <v>23.2700000000002</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0172851074959286</v>
+        <v>5.446223059424327e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0172851074959286</v>
+        <v>5.446223059424327e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>34.90142076106215</v>
+        <v>66.37526707104836</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[2.5105072640055823, 67.29233425811871]</t>
+          <t>[33.662557818102584, 99.08797632399413]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0353080976400364</v>
+        <v>0.0001779265001695673</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0353080976400364</v>
+        <v>0.0001779265001695673</v>
       </c>
       <c r="P7" t="n">
-        <v>2.295658295415965</v>
+        <v>2.383710942363427</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.490605523324886, 3.100711067507044]</t>
+          <t>[1.9308687580621946, 2.8365531266646586]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>7.496224598835255e-07</v>
+        <v>8.08242361927114e-14</v>
       </c>
       <c r="S7" t="n">
-        <v>7.496224598835255e-07</v>
+        <v>8.08242361927114e-14</v>
       </c>
       <c r="T7" t="n">
-        <v>58.84084870443866</v>
+        <v>64.95012647209404</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.183675545632624, 75.49802186324469]</t>
+          <t>[48.25449618886614, 81.64575675532194]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.888697168250246e-09</v>
+        <v>5.991438456476317e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>6.888697168250246e-09</v>
+        <v>5.991438456476317e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>14.71717717717729</v>
+        <v>14.44184184184197</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.74588588588598</v>
+        <v>12.76472472472483</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.68846846846861</v>
+        <v>16.1189589589591</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.19000000000019</v>
+        <v>23.2700000000002</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03002130504994938</v>
+        <v>0.0001488649803911279</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03002130504994938</v>
+        <v>0.0001488649803911279</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>25.37034603148295</v>
+        <v>48.7555433144972</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[1.395945669992237, 49.34474639297367]</t>
+          <t>[22.227274814036008, 75.2838118149584]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.03855445760633258</v>
+        <v>0.0005820505892160099</v>
       </c>
       <c r="O8" t="n">
-        <v>0.03855445760633258</v>
+        <v>0.0005820505892160099</v>
       </c>
       <c r="P8" t="n">
-        <v>2.836553126664658</v>
+        <v>2.823974177100735</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.4906055233248865, 4.1825007300044295]</t>
+          <t>[2.207605648468503, 3.4403427057329665]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0001080322191406857</v>
+        <v>6.057598866959779e-12</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0001080322191406857</v>
+        <v>6.057598866959779e-12</v>
       </c>
       <c r="T8" t="n">
-        <v>57.84670108400231</v>
+        <v>64.44262431701223</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.55061353371607, 71.14278863428854]</t>
+          <t>[49.31028023755071, 79.57496839647376]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.749711569549618e-11</v>
+        <v>5.057843033284826e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.749711569549618e-11</v>
+        <v>5.057843033284826e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>12.72084084084094</v>
+        <v>12.81131131131142</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.753213213213273</v>
+        <v>10.52856856856866</v>
       </c>
       <c r="Z8" t="n">
-        <v>17.68846846846861</v>
+        <v>15.09405405405418</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.80000000000013</v>
+        <v>22.10000000000002</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001671336584448957</v>
+        <v>3.034521264355661e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001671336584448957</v>
+        <v>3.034521264355661e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>43.70244293397591</v>
+        <v>42.45358126299464</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[19.761269185095756, 67.64361668285606]</t>
+          <t>[22.303257006311163, 62.603905519678115]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0006277488214474491</v>
+        <v>0.0001084709793011118</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0006277488214474491</v>
+        <v>0.0001084709793011118</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.930895248394081</v>
+        <v>2.912026824048196</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-3.559842726590236, -2.3019477701979265]</t>
+          <t>[2.3333951441077345, 3.490658503988658]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.645972412869014e-12</v>
+        <v>3.399502901402229e-13</v>
       </c>
       <c r="S9" t="n">
-        <v>3.645972412869014e-12</v>
+        <v>3.399502901402229e-13</v>
       </c>
       <c r="T9" t="n">
-        <v>50.99527175085864</v>
+        <v>49.63442777457374</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[37.22364215831597, 64.76690134340132]</t>
+          <t>[37.449623891600645, 61.81923165754683]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.143219823835807e-09</v>
+        <v>1.741007338296185e-10</v>
       </c>
       <c r="W9" t="n">
-        <v>2.143219823835807e-09</v>
+        <v>1.741007338296185e-10</v>
       </c>
       <c r="X9" t="n">
-        <v>10.63543543543549</v>
+        <v>11.85745745745747</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.353153153153201</v>
+        <v>9.822222222222234</v>
       </c>
       <c r="Z9" t="n">
-        <v>12.91771771771779</v>
+        <v>13.8926926926927</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.80000000000013</v>
+        <v>22.10000000000002</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002634963855456363</v>
+        <v>0.03861815333846086</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002634963855456363</v>
+        <v>0.03861815333846086</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>42.30841420109132</v>
+        <v>30.98586634336277</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[12.372354217282478, 72.24447418490016]</t>
+          <t>[-0.2012473264005621, 62.17298001312611]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.006634934540027393</v>
+        <v>0.05143396888966545</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006634934540027393</v>
+        <v>0.05143396888966545</v>
       </c>
       <c r="P10" t="n">
-        <v>-2.767368904063081</v>
+        <v>-2.830263651882697</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.5850006257180818, -1.9497371824080796]</t>
+          <t>[-4.2391060030420835, -1.4214213007233099]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.904710766886808e-08</v>
+        <v>0.00020197887104767</v>
       </c>
       <c r="S10" t="n">
-        <v>1.904710766886808e-08</v>
+        <v>0.00020197887104767</v>
       </c>
       <c r="T10" t="n">
-        <v>58.35811450640675</v>
+        <v>63.57355127417762</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[41.777323573900965, 74.93890543891254]</t>
+          <t>[46.57356189948939, 80.57354064886584]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>7.523863532199471e-09</v>
+        <v>1.668323257320026e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>7.523863532199471e-09</v>
+        <v>1.668323257320026e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>10.0420420420421</v>
+        <v>9.954954954954962</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.075075075075114</v>
+        <v>4.999599599599603</v>
       </c>
       <c r="Z10" t="n">
-        <v>13.00900900900908</v>
+        <v>14.91031031031032</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>22.80000000000013</v>
+        <v>22.10000000000002</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03751753348472819</v>
+        <v>0.03126316229315307</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03751753348472819</v>
+        <v>0.03126316229315307</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>33.20466831919682</v>
+        <v>32.10456320894377</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-0.24151205687279287, 66.65084869526643]</t>
+          <t>[-0.05224116235736176, 64.26136758024491]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.05160698475077963</v>
+        <v>0.05035771387114996</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05160698475077963</v>
+        <v>0.05035771387114996</v>
       </c>
       <c r="P11" t="n">
-        <v>-2.188737224122619</v>
+        <v>-2.364842518017542</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-4.06300070914716, -0.3144737390980774]</t>
+          <t>[-3.6227374744098513, -1.106947561625232]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.02310638813359889</v>
+        <v>0.0004500871330812561</v>
       </c>
       <c r="S11" t="n">
-        <v>0.02310638813359889</v>
+        <v>0.0004500871330812561</v>
       </c>
       <c r="T11" t="n">
-        <v>68.99506441598379</v>
+        <v>63.30697793537004</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[51.41464397004272, 86.57548486192486]</t>
+          <t>[46.780454210230346, 79.83350166050974]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.750020377031205e-10</v>
+        <v>8.9787910440009e-10</v>
       </c>
       <c r="W11" t="n">
-        <v>4.750020377031205e-10</v>
+        <v>8.9787910440009e-10</v>
       </c>
       <c r="X11" t="n">
-        <v>7.942342342342387</v>
+        <v>8.317917917917923</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.141141141141148</v>
+        <v>3.893493493493495</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.74354354354363</v>
+        <v>12.74234234234235</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22.80000000000013</v>
+        <v>22.10000000000002</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.637604060717891e-05</v>
+        <v>0.0001135351955356967</v>
       </c>
       <c r="I12" t="n">
-        <v>2.637604060717891e-05</v>
+        <v>0.0001135351955356967</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>55.22373023100331</v>
+        <v>52.17004008202689</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[26.486083360859766, 83.96137710114685]</t>
+          <t>[25.348592401776045, 78.99148776227774]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.0003482389193374402</v>
+        <v>0.0003011312893161922</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0003482389193374402</v>
+        <v>0.0003011312893161922</v>
       </c>
       <c r="P12" t="n">
-        <v>-2.088105627611234</v>
+        <v>-1.811368737204925</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.6164215092960044, -1.5597897459264631]</t>
+          <t>[-2.402579366709311, -1.2201581077005397]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.935094472495848e-10</v>
+        <v>1.740382105097638e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>3.935094472495848e-10</v>
+        <v>1.740382105097638e-07</v>
       </c>
       <c r="T12" t="n">
-        <v>60.02561227870063</v>
+        <v>65.11728688924198</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.087311604601126, 74.96391295280014]</t>
+          <t>[49.93513438113716, 80.2994393973468]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.523861120096171e-10</v>
+        <v>4.132338915496803e-11</v>
       </c>
       <c r="W12" t="n">
-        <v>2.523861120096171e-10</v>
+        <v>4.132338915496803e-11</v>
       </c>
       <c r="X12" t="n">
-        <v>7.577177177177218</v>
+        <v>6.371171171171175</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.660060060060088</v>
+        <v>4.291691691691693</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.494294294294347</v>
+        <v>8.450650650650658</v>
       </c>
     </row>
   </sheetData>
